--- a/datasets/testtimeline.xlsx
+++ b/datasets/testtimeline.xlsx
@@ -1,20 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://michiganstate-my.sharepoint.com/personal/fonsec16_msu_edu/Documents/Documents/Github/CAFO_June_2020/datasets/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://michiganstate-my.sharepoint.com/personal/fonsec16_msu_edu/Documents/Documents/CAFO-July-2021/Update-Website-July-2021/datasets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="29" documentId="11_94AEF99AB5F6F294F16A07F83D0337E14D261CEB" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{B878942D-9381-45B9-B837-899CE32E4AB5}"/>
+  <xr:revisionPtr revIDLastSave="219" documentId="11_94AEF99AB5F6F294F16A07F83D0337E14D261CEB" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{601C4BA8-BE38-477A-9FE5-5BF19C5CF559}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$J$35</definedName>
+  </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -25,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="53">
   <si>
     <t>year</t>
   </si>
@@ -33,9 +36,6 @@
     <t>&lt;a href='https://pubmed.ncbi.nlm.nih.gov/23111006/'&gt;Wing et al. 2013&lt;/a&gt;</t>
   </si>
   <si>
-    <t>&lt;a href='https://pubmed.ncbi.nlm.nih.gov/7620910/'&gt;Schiffman et al. 1995&lt;/a&gt;</t>
-  </si>
-  <si>
     <t>&lt;a href='https://link.springer.com/article/10.1007/s10745-005-1653-3'&gt;Bullers 2005&lt;/a&gt;</t>
   </si>
   <si>
@@ -51,9 +51,6 @@
     <t>&lt;a href='https://pubmed.ncbi.nlm.nih.gov/15866765/'&gt;Schiffman et al. 2005&lt;/a&gt;</t>
   </si>
   <si>
-    <t>&lt;a href='https://pubmed.ncbi.nlm.nih.gov/16075904/'&gt;Avery et al. 2004&lt;/a&gt;</t>
-  </si>
-  <si>
     <t>&lt;a href='https://pubmed.ncbi.nlm.nih.gov/24958086/'&gt;Schinasi et al. 2014&lt;/a&gt;</t>
   </si>
   <si>
@@ -88,13 +85,115 @@
   </si>
   <si>
     <t>ids</t>
+  </si>
+  <si>
+    <t>&lt;a href='https://pubmed.ncbi.nlm.nih.gov/31881422/'&gt;Karsen et al. 2020&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href='https://pubmed.ncbi.nlm.nih.gov/28805171/'&gt;Zomer et al. 2017&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href='https://pubmed.ncbi.nlm.nih.gov/28362334/'&gt;Rasmussen et al. 2017&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href='https://pubmed.ncbi.nlm.nih.gov/26352250/'&gt;Post et al. 2019&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href='https://pubmed.ncbi.nlm.nih.gov/26352250/'&gt;Loftus et al. 2015&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href='https://pubmed.ncbi.nlm.nih.gov/31543304/'&gt;Loftus et al. 2020&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href='https://bmcinfectdis.biomedcentral.com/articles/10.1186/s12879-015-1083-9'&gt;Ladbury et al. 2015&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href='https://pubmed.ncbi.nlm.nih.gov/30228132/'&gt;Kravchenko et al. 2018&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href='https://journals.plos.org/plosone/article?id=10.1371/journal.pone.0200813'&gt;Kalkowska et al. 2018&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href='https://pubmed.ncbi.nlm.nih.gov/26709884/'&gt;Hunter et al. 2016&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href='https://pubmed.ncbi.nlm.nih.gov/32168021/'&gt;Fisher et al. 2020&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href='https://pubmed.ncbi.nlm.nih.gov/29717154/'&gt;Douillard et al. 2018&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href='https://pubmed.ncbi.nlm.nih.gov/31238264/'&gt;Schultz et al. 2019&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href='https://pubmed.ncbi.nlm.nih.gov/29268955/'&gt;Poulsen et al. 2018&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href='https://www.ncbi.nlm.nih.gov/pmc/articles/PMC4449520/'&gt;Nava et al. 2015&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href='https://pubmed.ncbi.nlm.nih.gov/23406420/'&gt;Lavallois et al. 2014&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href='https://pubmed.ncbi.nlm.nih.gov/26888643/'&gt;Hooiveld et al. 2016&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href='https://journals.plos.org/plosone/article?id=10.1371/journal.pone.0174796'&gt;Freidl et al. 2017&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href='https://pubmed.ncbi.nlm.nih.gov/30800102/'&gt;Elstrom et al. 2019&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href='https://pubmed.ncbi.nlm.nih.gov/24442084/'&gt;Carrel et al. 2014&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>Netherlands</t>
+  </si>
+  <si>
+    <t>USA</t>
+  </si>
+  <si>
+    <t>UK</t>
+  </si>
+  <si>
+    <t>France</t>
+  </si>
+  <si>
+    <t>Mexico</t>
+  </si>
+  <si>
+    <t>Canada</t>
+  </si>
+  <si>
+    <t>Norway</t>
+  </si>
+  <si>
+    <t>Lower</t>
+  </si>
+  <si>
+    <t>Upper</t>
+  </si>
+  <si>
+    <t>GI</t>
+  </si>
+  <si>
+    <t>AR</t>
+  </si>
+  <si>
+    <t>Refid</t>
+  </si>
+  <si>
+    <t>Yes</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -115,13 +214,25 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -137,15 +248,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -427,33 +537,51 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D17"/>
+  <dimension ref="A1:J35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView tabSelected="1" topLeftCell="B21" workbookViewId="0">
+      <selection activeCell="M25" sqref="M25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="93.26953125" customWidth="1"/>
-    <col min="4" max="4" width="8.7265625" style="2"/>
+    <col min="4" max="5" width="8.7265625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
       </c>
       <c r="C1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D1" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E1" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="F1" t="s">
+        <v>39</v>
+      </c>
+      <c r="G1" t="s">
+        <v>47</v>
+      </c>
+      <c r="H1" t="s">
+        <v>48</v>
+      </c>
+      <c r="I1" t="s">
+        <v>49</v>
+      </c>
+      <c r="J1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -461,223 +589,593 @@
         <v>2013</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D2" s="2">
         <v>1552</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E2" s="2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>2</v>
       </c>
       <c r="B3">
-        <v>1995</v>
+        <v>2005</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D3" s="3">
-        <v>1187</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+        <v>17</v>
+      </c>
+      <c r="D3" s="2">
+        <v>2417</v>
+      </c>
+      <c r="E3" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>3</v>
       </c>
       <c r="B4">
-        <v>2005</v>
+        <v>2011</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D4" s="2">
-        <v>2417</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+        <v>327</v>
+      </c>
+      <c r="E4" s="2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>4</v>
       </c>
       <c r="B5">
-        <v>2011</v>
+        <v>2009</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D5" s="2">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+        <v>452</v>
+      </c>
+      <c r="E5" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>5</v>
       </c>
       <c r="B6">
-        <v>2009</v>
+        <v>2006</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D6" s="2">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+        <v>713</v>
+      </c>
+      <c r="E6" s="2">
+        <v>4</v>
+      </c>
+      <c r="G6" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>6</v>
       </c>
       <c r="B7">
-        <v>2006</v>
+        <v>2005</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D7" s="2">
-        <v>713</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+        <v>775</v>
+      </c>
+      <c r="E7" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>7</v>
       </c>
       <c r="B8">
-        <v>2005</v>
+        <v>2014</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D8" s="2">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+        <v>9</v>
+      </c>
+      <c r="E8" s="2">
+        <v>2</v>
+      </c>
+      <c r="J8" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9">
+        <v>2011</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D9" s="2">
+        <v>288</v>
+      </c>
+      <c r="E9" s="2">
+        <v>9</v>
+      </c>
+      <c r="H9" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
         <v>8</v>
       </c>
-      <c r="B9">
-        <v>2004</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D9" s="2">
-        <v>795</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
+      <c r="B10">
+        <v>2007</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D10" s="2">
+        <v>648</v>
+      </c>
+      <c r="E10" s="2">
+        <v>11</v>
+      </c>
+      <c r="G10" t="s">
+        <v>52</v>
+      </c>
+      <c r="H10" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
         <v>9</v>
       </c>
-      <c r="B10">
-        <v>2014</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D10" s="2">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
-        <v>16</v>
-      </c>
       <c r="B11">
-        <v>2011</v>
+        <v>2006</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D11" s="2">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+        <v>690</v>
+      </c>
+      <c r="E11" s="2">
+        <v>15</v>
+      </c>
+      <c r="G11" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>2007</v>
+        <v>2005</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D12" s="2">
-        <v>648</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+        <v>743</v>
+      </c>
+      <c r="E12" s="2">
+        <v>13</v>
+      </c>
+      <c r="G12" t="s">
+        <v>52</v>
+      </c>
+      <c r="H12" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>2006</v>
+        <v>2012</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D13" s="2">
-        <v>690</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+        <v>203</v>
+      </c>
+      <c r="E13" s="2">
+        <v>7</v>
+      </c>
+      <c r="G13" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>2005</v>
+        <v>2012</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D14" s="2">
-        <v>743</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+        <v>4000</v>
+      </c>
+      <c r="E14" s="2">
+        <v>1</v>
+      </c>
+      <c r="J14" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>2012</v>
+        <v>2014</v>
       </c>
       <c r="C15" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D15" s="2">
+        <v>81</v>
+      </c>
+      <c r="E15" s="2">
+        <v>5</v>
+      </c>
+      <c r="G15" t="s">
+        <v>52</v>
+      </c>
+      <c r="H15" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A16" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="D15" s="2">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A16" t="s">
+      <c r="B16">
+        <v>2020</v>
+      </c>
+      <c r="D16" s="2">
+        <v>2222</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A17" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B17">
+        <v>2017</v>
+      </c>
+      <c r="D17" s="2">
+        <v>1111</v>
+      </c>
+      <c r="F17" s="4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A18" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B18">
+        <v>2017</v>
+      </c>
+      <c r="D18" s="2">
+        <v>3333</v>
+      </c>
+      <c r="F18" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A19" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B19">
+        <v>2019</v>
+      </c>
+      <c r="D19" s="2">
+        <v>4</v>
+      </c>
+      <c r="F19" s="4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A20" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20">
+        <v>2015</v>
+      </c>
+      <c r="D20" s="2">
+        <v>5</v>
+      </c>
+      <c r="F20" s="4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A21" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21">
+        <v>2020</v>
+      </c>
+      <c r="D21" s="2">
+        <v>6</v>
+      </c>
+      <c r="F21" s="4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A22" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B22">
+        <v>2015</v>
+      </c>
+      <c r="D22" s="2">
+        <v>7</v>
+      </c>
+      <c r="F22" s="4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A23" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B23">
+        <v>2018</v>
+      </c>
+      <c r="D23" s="2">
+        <v>8</v>
+      </c>
+      <c r="F23" s="4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A24" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B24">
+        <v>2018</v>
+      </c>
+      <c r="D24" s="2">
+        <v>99</v>
+      </c>
+      <c r="F24" s="4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A25" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B25">
+        <v>2016</v>
+      </c>
+      <c r="D25" s="2">
+        <v>10</v>
+      </c>
+      <c r="F25" s="4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A26" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B26">
+        <v>2020</v>
+      </c>
+      <c r="D26" s="2">
+        <v>11</v>
+      </c>
+      <c r="F26" s="4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A27" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B27">
+        <v>2018</v>
+      </c>
+      <c r="D27" s="2">
+        <v>12</v>
+      </c>
+      <c r="F27" s="4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A28" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B28">
+        <v>2019</v>
+      </c>
+      <c r="D28" s="2">
+        <v>13</v>
+      </c>
+      <c r="E28" s="2">
+        <v>32508669</v>
+      </c>
+      <c r="F28" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="J28" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A29" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B29">
+        <v>2018</v>
+      </c>
+      <c r="D29" s="2">
         <v>14</v>
       </c>
-      <c r="B16">
-        <v>2012</v>
-      </c>
-      <c r="C16" s="1" t="s">
+      <c r="E29" s="2">
+        <v>32508518</v>
+      </c>
+      <c r="F29" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="I29" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A30" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B30">
+        <v>2015</v>
+      </c>
+      <c r="D30" s="2">
+        <v>15</v>
+      </c>
+      <c r="E30" s="2">
+        <v>32508377</v>
+      </c>
+      <c r="F30" s="4" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A31" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B31">
+        <v>2014</v>
+      </c>
+      <c r="D31" s="2">
+        <v>16</v>
+      </c>
+      <c r="E31" s="2">
+        <v>32508130</v>
+      </c>
+      <c r="F31" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="I31" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A32" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B32">
+        <v>2016</v>
+      </c>
+      <c r="D32" s="2">
+        <v>17</v>
+      </c>
+      <c r="E32" s="2">
+        <v>32507932</v>
+      </c>
+      <c r="F32" s="4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A33" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B33">
+        <v>2017</v>
+      </c>
+      <c r="D33" s="2">
+        <v>18</v>
+      </c>
+      <c r="E33" s="2">
+        <v>32507767</v>
+      </c>
+      <c r="F33" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="G33" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A34" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B34">
+        <v>2019</v>
+      </c>
+      <c r="D34" s="2">
         <v>19</v>
       </c>
-      <c r="D16" s="2">
-        <v>4000</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A17" t="s">
-        <v>15</v>
-      </c>
-      <c r="B17">
+      <c r="E34" s="2">
+        <v>32507707</v>
+      </c>
+      <c r="F34" s="4" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A35" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B35">
         <v>2014</v>
       </c>
-      <c r="C17" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D17" s="2">
-        <v>81</v>
+      <c r="D35" s="2">
+        <v>20</v>
+      </c>
+      <c r="E35" s="2">
+        <v>32507530</v>
+      </c>
+      <c r="F35" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="J35" t="s">
+        <v>52</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:J35" xr:uid="{CDC32256-5096-46CB-896E-B947057D795D}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/datasets/testtimeline.xlsx
+++ b/datasets/testtimeline.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://michiganstate-my.sharepoint.com/personal/fonsec16_msu_edu/Documents/Documents/CAFO-July-2021/Update-Website-July-2021/datasets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="219" documentId="11_94AEF99AB5F6F294F16A07F83D0337E14D261CEB" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{601C4BA8-BE38-477A-9FE5-5BF19C5CF559}"/>
+  <xr:revisionPtr revIDLastSave="319" documentId="11_94AEF99AB5F6F294F16A07F83D0337E14D261CEB" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{51E2103C-7BF4-4CC1-AB1C-54347A62059A}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$J$35</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$F$36</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -27,8 +27,26 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>tc={F035AB72-66E3-47D9-9260-0A8DE8B74AA0}</author>
+  </authors>
+  <commentList>
+    <comment ref="A3" authorId="0" shapeId="0" xr:uid="{F035AB72-66E3-47D9-9260-0A8DE8B74AA0}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Only study level extracted</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="50">
   <si>
     <t>year</t>
   </si>
@@ -48,9 +66,6 @@
     <t>&lt;a href='https://www.ncbi.nlm.nih.gov/pmc/articles/PMC4517575/'&gt;Mirabelli et al. 2006&lt;/a&gt;</t>
   </si>
   <si>
-    <t>&lt;a href='https://pubmed.ncbi.nlm.nih.gov/15866765/'&gt;Schiffman et al. 2005&lt;/a&gt;</t>
-  </si>
-  <si>
     <t>&lt;a href='https://pubmed.ncbi.nlm.nih.gov/24958086/'&gt;Schinasi et al. 2014&lt;/a&gt;</t>
   </si>
   <si>
@@ -171,22 +186,16 @@
     <t>Norway</t>
   </si>
   <si>
-    <t>Lower</t>
-  </si>
-  <si>
-    <t>Upper</t>
-  </si>
-  <si>
-    <t>GI</t>
-  </si>
-  <si>
-    <t>AR</t>
-  </si>
-  <si>
     <t>Refid</t>
   </si>
   <si>
-    <t>Yes</t>
+    <t>Germany</t>
+  </si>
+  <si>
+    <t>&lt;a href='https://pubmed.ncbi.nlm.nih.gov/7620910/'&gt;Schiffman et al. 1995&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href='https://pubmed.ncbi.nlm.nih.gov/16075904/'&gt;Avery et al. 2004&lt;/a&gt;</t>
   </si>
 </sst>
 </file>
@@ -221,7 +230,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -231,6 +240,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -248,7 +263,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -256,6 +271,11 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -272,6 +292,12 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <person displayName="Fonsecamartinez, Alex" id="{6202FF1A-E83C-43B5-B9F4-6C20D9053404}" userId="S::fonsec16@msu.edu::ad3b80e4-30ee-4dc1-8fff-b6e891d233c5" providerId="AD"/>
+</personList>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -535,12 +561,21 @@
 </a:theme>
 </file>
 
+<file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
+<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <threadedComment ref="A3" dT="2021-08-22T03:28:23.35" personId="{6202FF1A-E83C-43B5-B9F4-6C20D9053404}" id="{F035AB72-66E3-47D9-9260-0A8DE8B74AA0}">
+    <text>Only study level extracted</text>
+  </threadedComment>
+</ThreadedComments>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J35"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:F36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B21" workbookViewId="0">
-      <selection activeCell="M25" sqref="M25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -549,39 +584,27 @@
     <col min="4" max="5" width="8.7265625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="F1" t="s">
-        <v>39</v>
-      </c>
-      <c r="G1" t="s">
-        <v>47</v>
-      </c>
-      <c r="H1" t="s">
-        <v>48</v>
-      </c>
-      <c r="I1" t="s">
-        <v>49</v>
-      </c>
-      <c r="J1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -589,7 +612,7 @@
         <v>2013</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D2" s="2">
         <v>1552</v>
@@ -597,586 +620,590 @@
       <c r="E2" s="2">
         <v>16</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
+      <c r="F2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="B3" s="5">
+        <v>2004</v>
+      </c>
+      <c r="C3" s="6"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7">
+        <v>10</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="B4" s="5">
+        <v>1995</v>
+      </c>
+      <c r="C4" s="6"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="7">
+        <v>8</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
         <v>2</v>
       </c>
-      <c r="B3">
+      <c r="B5">
         <v>2005</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D3" s="2">
+      <c r="C5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" s="2">
         <v>2417</v>
       </c>
-      <c r="E3" s="2">
+      <c r="E5" s="2">
         <v>6</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
+      <c r="F5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
         <v>3</v>
       </c>
-      <c r="B4">
+      <c r="B6">
         <v>2011</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D4" s="2">
+      <c r="C6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" s="2">
         <v>327</v>
       </c>
-      <c r="E4" s="2">
+      <c r="E6" s="2">
         <v>12</v>
       </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
+      <c r="F6" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
         <v>4</v>
       </c>
-      <c r="B5">
+      <c r="B7">
         <v>2009</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D5" s="2">
+      <c r="C7" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" s="2">
         <v>452</v>
       </c>
-      <c r="E5" s="2">
+      <c r="E7" s="2">
         <v>14</v>
       </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
+      <c r="F7" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
         <v>5</v>
       </c>
-      <c r="B6">
+      <c r="B8">
         <v>2006</v>
       </c>
-      <c r="C6" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D6" s="2">
+      <c r="C8" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" s="2">
         <v>713</v>
       </c>
-      <c r="E6" s="2">
+      <c r="E8" s="2">
         <v>4</v>
       </c>
-      <c r="G6" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
+      <c r="F8" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
         <v>6</v>
       </c>
-      <c r="B7">
+      <c r="B9">
+        <v>2014</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9" s="2">
+        <v>9</v>
+      </c>
+      <c r="E9" s="2">
+        <v>2</v>
+      </c>
+      <c r="F9" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10">
+        <v>2011</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D10" s="2">
+        <v>288</v>
+      </c>
+      <c r="E10" s="2">
+        <v>9</v>
+      </c>
+      <c r="F10" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>7</v>
+      </c>
+      <c r="B11">
+        <v>2007</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D11" s="2">
+        <v>648</v>
+      </c>
+      <c r="E11" s="2">
+        <v>11</v>
+      </c>
+      <c r="F11" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>8</v>
+      </c>
+      <c r="B12">
+        <v>2006</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D12" s="2">
+        <v>690</v>
+      </c>
+      <c r="E12" s="2">
+        <v>15</v>
+      </c>
+      <c r="F12" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>9</v>
+      </c>
+      <c r="B13">
         <v>2005</v>
       </c>
-      <c r="C7" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D7" s="2">
-        <v>775</v>
-      </c>
-      <c r="E7" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8">
-        <v>2014</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D8" s="2">
-        <v>9</v>
-      </c>
-      <c r="E8" s="2">
-        <v>2</v>
-      </c>
-      <c r="J8" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
-        <v>14</v>
-      </c>
-      <c r="B9">
-        <v>2011</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D9" s="2">
-        <v>288</v>
-      </c>
-      <c r="E9" s="2">
-        <v>9</v>
-      </c>
-      <c r="H9" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
-        <v>8</v>
-      </c>
-      <c r="B10">
-        <v>2007</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D10" s="2">
-        <v>648</v>
-      </c>
-      <c r="E10" s="2">
-        <v>11</v>
-      </c>
-      <c r="G10" t="s">
-        <v>52</v>
-      </c>
-      <c r="H10" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
-        <v>9</v>
-      </c>
-      <c r="B11">
-        <v>2006</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D11" s="2">
-        <v>690</v>
-      </c>
-      <c r="E11" s="2">
-        <v>15</v>
-      </c>
-      <c r="G11" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A12" t="s">
+      <c r="C13" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D13" s="2">
+        <v>743</v>
+      </c>
+      <c r="E13" s="2">
+        <v>13</v>
+      </c>
+      <c r="F13" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
         <v>10</v>
-      </c>
-      <c r="B12">
-        <v>2005</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D12" s="2">
-        <v>743</v>
-      </c>
-      <c r="E12" s="2">
-        <v>13</v>
-      </c>
-      <c r="G12" t="s">
-        <v>52</v>
-      </c>
-      <c r="H12" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A13" t="s">
-        <v>11</v>
-      </c>
-      <c r="B13">
-        <v>2012</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D13" s="2">
-        <v>203</v>
-      </c>
-      <c r="E13" s="2">
-        <v>7</v>
-      </c>
-      <c r="G13" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A14" t="s">
-        <v>12</v>
       </c>
       <c r="B14">
         <v>2012</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D14" s="2">
+        <v>203</v>
+      </c>
+      <c r="E14" s="2">
+        <v>7</v>
+      </c>
+      <c r="F14" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>11</v>
+      </c>
+      <c r="B15">
+        <v>2012</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D15" s="2">
         <v>4000</v>
       </c>
-      <c r="E14" s="2">
+      <c r="E15" s="2">
         <v>1</v>
       </c>
-      <c r="J14" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A15" t="s">
-        <v>13</v>
-      </c>
-      <c r="B15">
+      <c r="F15" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>12</v>
+      </c>
+      <c r="B16">
         <v>2014</v>
       </c>
-      <c r="C15" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D15" s="2">
+      <c r="C16" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D16" s="2">
         <v>81</v>
       </c>
-      <c r="E15" s="2">
+      <c r="E16" s="2">
         <v>5</v>
       </c>
-      <c r="G15" t="s">
-        <v>52</v>
-      </c>
-      <c r="H15" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A16" s="3" t="s">
+      <c r="F16" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A17" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B17">
+        <v>2020</v>
+      </c>
+      <c r="D17" s="2">
+        <v>2222</v>
+      </c>
+      <c r="F17" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A18" s="3" t="s">
         <v>19</v>
-      </c>
-      <c r="B16">
-        <v>2020</v>
-      </c>
-      <c r="D16" s="2">
-        <v>2222</v>
-      </c>
-      <c r="F16" s="4" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A17" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B17">
-        <v>2017</v>
-      </c>
-      <c r="D17" s="2">
-        <v>1111</v>
-      </c>
-      <c r="F17" s="4" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A18" s="3" t="s">
-        <v>21</v>
       </c>
       <c r="B18">
         <v>2017</v>
       </c>
       <c r="D18" s="2">
+        <v>1111</v>
+      </c>
+      <c r="F18" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A19" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B19">
+        <v>2017</v>
+      </c>
+      <c r="D19" s="2">
         <v>3333</v>
       </c>
-      <c r="F18" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A19" s="3" t="s">
+      <c r="F19" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A20" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B20">
+        <v>2019</v>
+      </c>
+      <c r="D20" s="2">
+        <v>4</v>
+      </c>
+      <c r="F20" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A21" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B19">
-        <v>2019</v>
-      </c>
-      <c r="D19" s="2">
-        <v>4</v>
-      </c>
-      <c r="F19" s="4" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A20" s="3" t="s">
+      <c r="B21">
+        <v>2015</v>
+      </c>
+      <c r="D21" s="2">
+        <v>5</v>
+      </c>
+      <c r="F21" s="4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A22" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B20">
+      <c r="B22">
+        <v>2020</v>
+      </c>
+      <c r="D22" s="2">
+        <v>6</v>
+      </c>
+      <c r="F22" s="4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A23" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23">
         <v>2015</v>
       </c>
-      <c r="D20" s="2">
-        <v>5</v>
-      </c>
-      <c r="F20" s="4" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A21" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B21">
-        <v>2020</v>
-      </c>
-      <c r="D21" s="2">
-        <v>6</v>
-      </c>
-      <c r="F21" s="4" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A22" s="3" t="s">
+      <c r="D23" s="2">
+        <v>7</v>
+      </c>
+      <c r="F23" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A24" s="3" t="s">
         <v>25</v>
-      </c>
-      <c r="B22">
-        <v>2015</v>
-      </c>
-      <c r="D22" s="2">
-        <v>7</v>
-      </c>
-      <c r="F22" s="4" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A23" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="B23">
-        <v>2018</v>
-      </c>
-      <c r="D23" s="2">
-        <v>8</v>
-      </c>
-      <c r="F23" s="4" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A24" s="3" t="s">
-        <v>27</v>
       </c>
       <c r="B24">
         <v>2018</v>
       </c>
       <c r="D24" s="2">
+        <v>8</v>
+      </c>
+      <c r="F24" s="4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A25" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B25">
+        <v>2018</v>
+      </c>
+      <c r="D25" s="2">
         <v>99</v>
       </c>
-      <c r="F24" s="4" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A25" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="B25">
+      <c r="F25" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A26" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B26">
         <v>2016</v>
       </c>
-      <c r="D25" s="2">
+      <c r="D26" s="2">
         <v>10</v>
-      </c>
-      <c r="F25" s="4" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A26" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="B26">
-        <v>2020</v>
-      </c>
-      <c r="D26" s="2">
-        <v>11</v>
       </c>
       <c r="F26" s="4" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="27" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A27" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B27">
+        <v>2020</v>
+      </c>
+      <c r="D27" s="2">
+        <v>11</v>
+      </c>
+      <c r="F27" s="4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A28" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B28">
+        <v>2018</v>
+      </c>
+      <c r="D28" s="2">
+        <v>12</v>
+      </c>
+      <c r="F28" s="4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A29" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="B27">
+      <c r="B29">
+        <v>2019</v>
+      </c>
+      <c r="D29" s="2">
+        <v>13</v>
+      </c>
+      <c r="E29" s="2">
+        <v>32508669</v>
+      </c>
+      <c r="F29" s="4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A30" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B30">
         <v>2018</v>
       </c>
-      <c r="D27" s="2">
-        <v>12</v>
-      </c>
-      <c r="F27" s="4" t="s">
+      <c r="D30" s="2">
+        <v>14</v>
+      </c>
+      <c r="E30" s="2">
+        <v>32508518</v>
+      </c>
+      <c r="F30" s="4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A31" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B31">
+        <v>2015</v>
+      </c>
+      <c r="D31" s="2">
+        <v>15</v>
+      </c>
+      <c r="E31" s="2">
+        <v>32508377</v>
+      </c>
+      <c r="F31" s="4" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="28" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A28" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="B28">
+    <row r="32" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A32" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B32">
+        <v>2014</v>
+      </c>
+      <c r="D32" s="2">
+        <v>16</v>
+      </c>
+      <c r="E32" s="2">
+        <v>32508130</v>
+      </c>
+      <c r="F32" s="4" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A33" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B33">
+        <v>2016</v>
+      </c>
+      <c r="D33" s="2">
+        <v>17</v>
+      </c>
+      <c r="E33" s="2">
+        <v>32507932</v>
+      </c>
+      <c r="F33" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A34" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B34">
+        <v>2017</v>
+      </c>
+      <c r="D34" s="2">
+        <v>18</v>
+      </c>
+      <c r="E34" s="2">
+        <v>32507767</v>
+      </c>
+      <c r="F34" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A35" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B35">
         <v>2019</v>
       </c>
-      <c r="D28" s="2">
-        <v>13</v>
-      </c>
-      <c r="E28" s="2">
-        <v>32508669</v>
-      </c>
-      <c r="F28" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="J28" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A29" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="B29">
-        <v>2018</v>
-      </c>
-      <c r="D29" s="2">
-        <v>14</v>
-      </c>
-      <c r="E29" s="2">
-        <v>32508518</v>
-      </c>
-      <c r="F29" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="I29" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A30" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="B30">
-        <v>2015</v>
-      </c>
-      <c r="D30" s="2">
-        <v>15</v>
-      </c>
-      <c r="E30" s="2">
-        <v>32508377</v>
-      </c>
-      <c r="F30" s="4" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A31" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="B31">
+      <c r="D35" s="2">
+        <v>19</v>
+      </c>
+      <c r="E35" s="2">
+        <v>32507707</v>
+      </c>
+      <c r="F35" s="4" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A36" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B36">
         <v>2014</v>
       </c>
-      <c r="D31" s="2">
-        <v>16</v>
-      </c>
-      <c r="E31" s="2">
-        <v>32508130</v>
-      </c>
-      <c r="F31" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="I31" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A32" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="B32">
-        <v>2016</v>
-      </c>
-      <c r="D32" s="2">
-        <v>17</v>
-      </c>
-      <c r="E32" s="2">
-        <v>32507932</v>
-      </c>
-      <c r="F32" s="4" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A33" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="B33">
-        <v>2017</v>
-      </c>
-      <c r="D33" s="2">
-        <v>18</v>
-      </c>
-      <c r="E33" s="2">
-        <v>32507767</v>
-      </c>
-      <c r="F33" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="G33" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="34" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A34" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="B34">
-        <v>2019</v>
-      </c>
-      <c r="D34" s="2">
-        <v>19</v>
-      </c>
-      <c r="E34" s="2">
-        <v>32507707</v>
-      </c>
-      <c r="F34" s="4" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="35" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A35" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="B35">
-        <v>2014</v>
-      </c>
-      <c r="D35" s="2">
+      <c r="D36" s="2">
         <v>20</v>
       </c>
-      <c r="E35" s="2">
+      <c r="E36" s="2">
         <v>32507530</v>
       </c>
-      <c r="F35" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="J35" t="s">
-        <v>52</v>
+      <c r="F36" s="4" t="s">
+        <v>40</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:J35" xr:uid="{CDC32256-5096-46CB-896E-B947057D795D}"/>
+  <autoFilter ref="A1:F36" xr:uid="{2B0286BE-7DB6-4D39-BE15-88F859A37941}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/datasets/testtimeline.xlsx
+++ b/datasets/testtimeline.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://michiganstate-my.sharepoint.com/personal/fonsec16_msu_edu/Documents/Documents/CAFO-July-2021/Update-Website-July-2021/datasets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="319" documentId="11_94AEF99AB5F6F294F16A07F83D0337E14D261CEB" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{51E2103C-7BF4-4CC1-AB1C-54347A62059A}"/>
+  <xr:revisionPtr revIDLastSave="344" documentId="11_94AEF99AB5F6F294F16A07F83D0337E14D261CEB" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{D88CAF67-1973-4CB3-8408-9C54937F99AB}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="74">
   <si>
     <t>year</t>
   </si>
@@ -196,6 +196,78 @@
   </si>
   <si>
     <t>&lt;a href='https://pubmed.ncbi.nlm.nih.gov/16075904/'&gt;Avery et al. 2004&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>authors</t>
+  </si>
+  <si>
+    <t>Wing et al. 2013</t>
+  </si>
+  <si>
+    <t>Avery et al. 2004</t>
+  </si>
+  <si>
+    <t>Schiffman et al. 1995</t>
+  </si>
+  <si>
+    <t>Bullers 2005</t>
+  </si>
+  <si>
+    <t>Schinasi et al. 2011</t>
+  </si>
+  <si>
+    <t>Horton et al. 2009</t>
+  </si>
+  <si>
+    <t>Mirabelli et al. 2006</t>
+  </si>
+  <si>
+    <t>Schinasi et al. 2014</t>
+  </si>
+  <si>
+    <t>Schulze et al. 2011</t>
+  </si>
+  <si>
+    <t>Radon et al. 2007</t>
+  </si>
+  <si>
+    <t>Hoopmann et al. 2006</t>
+  </si>
+  <si>
+    <t>Radon et al. 2005</t>
+  </si>
+  <si>
+    <t>Smit et al. 2012</t>
+  </si>
+  <si>
+    <t>Feingold et al. 2012</t>
+  </si>
+  <si>
+    <t>Smit et al. 2014</t>
+  </si>
+  <si>
+    <t>Schultz et al. 2019</t>
+  </si>
+  <si>
+    <t>Poulsen et al. 2018</t>
+  </si>
+  <si>
+    <t>Nava et al. 2015</t>
+  </si>
+  <si>
+    <t>Lavallois et al. 2014</t>
+  </si>
+  <si>
+    <t>Hooiveld et al. 2016</t>
+  </si>
+  <si>
+    <t>Freidl et al. 2017</t>
+  </si>
+  <si>
+    <t>Elstrom et al. 2019</t>
+  </si>
+  <si>
+    <t>Carrel et al. 2014</t>
   </si>
 </sst>
 </file>
@@ -571,11 +643,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F36"/>
+  <dimension ref="A1:G36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -584,7 +656,7 @@
     <col min="4" max="5" width="8.7265625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>14</v>
       </c>
@@ -603,8 +675,11 @@
       <c r="F1" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -623,8 +698,11 @@
       <c r="F2" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="G2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A3" s="5" t="s">
         <v>49</v>
       </c>
@@ -639,8 +717,11 @@
       <c r="F3" s="5" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="G3" s="5" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A4" s="5" t="s">
         <v>48</v>
       </c>
@@ -655,8 +736,11 @@
       <c r="F4" s="5" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G4" s="5" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -675,8 +759,11 @@
       <c r="F5" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G5" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>3</v>
       </c>
@@ -695,8 +782,11 @@
       <c r="F6" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G6" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>4</v>
       </c>
@@ -715,8 +805,11 @@
       <c r="F7" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G7" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>5</v>
       </c>
@@ -735,8 +828,11 @@
       <c r="F8" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G8" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>6</v>
       </c>
@@ -755,8 +851,11 @@
       <c r="F9" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G9" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>13</v>
       </c>
@@ -775,8 +874,11 @@
       <c r="F10" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G10" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>7</v>
       </c>
@@ -795,8 +897,11 @@
       <c r="F11" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G11" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>8</v>
       </c>
@@ -815,8 +920,11 @@
       <c r="F12" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G12" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>9</v>
       </c>
@@ -835,8 +943,11 @@
       <c r="F13" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G13" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>10</v>
       </c>
@@ -855,8 +966,11 @@
       <c r="F14" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G14" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>11</v>
       </c>
@@ -875,8 +989,11 @@
       <c r="F15" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G15" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>12</v>
       </c>
@@ -895,8 +1012,11 @@
       <c r="F16" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="G16" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A17" s="3" t="s">
         <v>18</v>
       </c>
@@ -910,7 +1030,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A18" s="3" t="s">
         <v>19</v>
       </c>
@@ -924,7 +1044,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A19" s="3" t="s">
         <v>20</v>
       </c>
@@ -938,7 +1058,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A20" s="3" t="s">
         <v>21</v>
       </c>
@@ -952,7 +1072,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A21" s="3" t="s">
         <v>22</v>
       </c>
@@ -966,7 +1086,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A22" s="3" t="s">
         <v>23</v>
       </c>
@@ -980,7 +1100,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A23" s="3" t="s">
         <v>24</v>
       </c>
@@ -994,7 +1114,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A24" s="3" t="s">
         <v>25</v>
       </c>
@@ -1008,7 +1128,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A25" s="3" t="s">
         <v>26</v>
       </c>
@@ -1022,7 +1142,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A26" s="3" t="s">
         <v>27</v>
       </c>
@@ -1036,7 +1156,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A27" s="3" t="s">
         <v>28</v>
       </c>
@@ -1050,7 +1170,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A28" s="3" t="s">
         <v>29</v>
       </c>
@@ -1064,7 +1184,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A29" s="3" t="s">
         <v>30</v>
       </c>
@@ -1080,8 +1200,11 @@
       <c r="F29" s="4" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="30" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="G29" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A30" s="3" t="s">
         <v>31</v>
       </c>
@@ -1097,8 +1220,11 @@
       <c r="F30" s="4" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="31" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="G30" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A31" s="3" t="s">
         <v>32</v>
       </c>
@@ -1114,8 +1240,11 @@
       <c r="F31" s="4" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="32" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="G31" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A32" s="3" t="s">
         <v>33</v>
       </c>
@@ -1131,8 +1260,11 @@
       <c r="F32" s="4" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="33" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="G32" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A33" s="3" t="s">
         <v>34</v>
       </c>
@@ -1148,8 +1280,11 @@
       <c r="F33" s="4" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="34" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="G33" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A34" s="3" t="s">
         <v>35</v>
       </c>
@@ -1165,8 +1300,11 @@
       <c r="F34" s="4" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="35" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="G34" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A35" s="3" t="s">
         <v>36</v>
       </c>
@@ -1182,8 +1320,11 @@
       <c r="F35" s="4" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="36" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="G35" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A36" s="3" t="s">
         <v>37</v>
       </c>
@@ -1198,6 +1339,9 @@
       </c>
       <c r="F36" s="4" t="s">
         <v>40</v>
+      </c>
+      <c r="G36" t="s">
+        <v>73</v>
       </c>
     </row>
   </sheetData>

--- a/datasets/testtimeline.xlsx
+++ b/datasets/testtimeline.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://michiganstate-my.sharepoint.com/personal/fonsec16_msu_edu/Documents/Documents/CAFO-July-2021/Update-Website-July-2021/datasets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="344" documentId="11_94AEF99AB5F6F294F16A07F83D0337E14D261CEB" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{D88CAF67-1973-4CB3-8408-9C54937F99AB}"/>
+  <xr:revisionPtr revIDLastSave="376" documentId="11_94AEF99AB5F6F294F16A07F83D0337E14D261CEB" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{F088A64B-A438-433C-878D-B7F3924E9120}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="86">
   <si>
     <t>year</t>
   </si>
@@ -268,6 +268,42 @@
   </si>
   <si>
     <t>Carrel et al. 2014</t>
+  </si>
+  <si>
+    <t>Karsen et al. 2020</t>
+  </si>
+  <si>
+    <t>Zomer et al. 2017</t>
+  </si>
+  <si>
+    <t>Rasmussen et al. 2017</t>
+  </si>
+  <si>
+    <t>Post et al. 2019</t>
+  </si>
+  <si>
+    <t>Loftus et al. 2015</t>
+  </si>
+  <si>
+    <t>Loftus et al. 2020</t>
+  </si>
+  <si>
+    <t>Ladbury et al. 2015</t>
+  </si>
+  <si>
+    <t>Kravchenko et al. 2018</t>
+  </si>
+  <si>
+    <t>Kalkowska et al. 2018</t>
+  </si>
+  <si>
+    <t>Hunter et al. 2016</t>
+  </si>
+  <si>
+    <t>Fisher et al. 2020</t>
+  </si>
+  <si>
+    <t>Douillard et al. 2018</t>
   </si>
 </sst>
 </file>
@@ -646,8 +682,8 @@
   <dimension ref="A1:G36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G1" sqref="G1"/>
+      <pane ySplit="1" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F33" sqref="F33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1026,8 +1062,14 @@
       <c r="D17" s="2">
         <v>2222</v>
       </c>
+      <c r="E17" s="2">
+        <v>32509660</v>
+      </c>
       <c r="F17" s="4" t="s">
         <v>39</v>
+      </c>
+      <c r="G17" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
@@ -1040,8 +1082,14 @@
       <c r="D18" s="2">
         <v>1111</v>
       </c>
+      <c r="E18" s="2">
+        <v>32509722</v>
+      </c>
       <c r="F18" s="4" t="s">
         <v>39</v>
+      </c>
+      <c r="G18" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.35">
@@ -1054,8 +1102,14 @@
       <c r="D19" s="2">
         <v>3333</v>
       </c>
+      <c r="E19" s="2">
+        <v>32509566</v>
+      </c>
       <c r="F19" t="s">
         <v>40</v>
+      </c>
+      <c r="G19" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
@@ -1068,8 +1122,14 @@
       <c r="D20" s="2">
         <v>4</v>
       </c>
+      <c r="E20" s="2">
+        <v>32509553</v>
+      </c>
       <c r="F20" s="4" t="s">
         <v>39</v>
+      </c>
+      <c r="G20" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
@@ -1082,8 +1142,14 @@
       <c r="D21" s="2">
         <v>5</v>
       </c>
+      <c r="E21" s="2">
+        <v>32509433</v>
+      </c>
       <c r="F21" s="4" t="s">
         <v>40</v>
+      </c>
+      <c r="G21" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
@@ -1096,8 +1162,14 @@
       <c r="D22" s="2">
         <v>6</v>
       </c>
+      <c r="E22" s="2">
+        <v>32509432</v>
+      </c>
       <c r="F22" s="4" t="s">
         <v>40</v>
+      </c>
+      <c r="G22" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
@@ -1110,8 +1182,14 @@
       <c r="D23" s="2">
         <v>7</v>
       </c>
+      <c r="E23" s="2">
+        <v>32509394</v>
+      </c>
       <c r="F23" s="4" t="s">
         <v>39</v>
+      </c>
+      <c r="G23" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
@@ -1127,6 +1205,9 @@
       <c r="F24" s="4" t="s">
         <v>40</v>
       </c>
+      <c r="G24" t="s">
+        <v>81</v>
+      </c>
     </row>
     <row r="25" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A25" s="3" t="s">
@@ -1138,8 +1219,14 @@
       <c r="D25" s="2">
         <v>99</v>
       </c>
+      <c r="E25" s="2">
+        <v>32509363</v>
+      </c>
       <c r="F25" s="4" t="s">
         <v>39</v>
+      </c>
+      <c r="G25" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="26" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
@@ -1155,6 +1242,9 @@
       <c r="F26" s="4" t="s">
         <v>41</v>
       </c>
+      <c r="G26" t="s">
+        <v>83</v>
+      </c>
     </row>
     <row r="27" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A27" s="3" t="s">
@@ -1166,8 +1256,14 @@
       <c r="D27" s="2">
         <v>11</v>
       </c>
+      <c r="E27" s="2">
+        <v>32509257</v>
+      </c>
       <c r="F27" s="4" t="s">
         <v>40</v>
+      </c>
+      <c r="G27" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="28" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
@@ -1180,8 +1276,14 @@
       <c r="D28" s="2">
         <v>12</v>
       </c>
+      <c r="E28" s="2">
+        <v>32509233</v>
+      </c>
       <c r="F28" s="4" t="s">
         <v>42</v>
+      </c>
+      <c r="G28" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="29" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">

--- a/datasets/testtimeline.xlsx
+++ b/datasets/testtimeline.xlsx
@@ -5,23 +5,32 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://michiganstate-my.sharepoint.com/personal/fonsec16_msu_edu/Documents/Documents/CAFO-July-2021/Update-Website-July-2021/datasets/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fonsec16\OneDrive - Michigan State University\Documents\CAFO-July-2021\Update-Website-July-2021\datasets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="376" documentId="11_94AEF99AB5F6F294F16A07F83D0337E14D261CEB" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{F088A64B-A438-433C-878D-B7F3924E9120}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D35E2715-E4BD-40DD-B927-B548B1EDF618}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$F$36</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$F$33</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -46,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="82">
   <si>
     <t>year</t>
   </si>
@@ -120,18 +129,9 @@
     <t>&lt;a href='https://pubmed.ncbi.nlm.nih.gov/31543304/'&gt;Loftus et al. 2020&lt;/a&gt;</t>
   </si>
   <si>
-    <t>&lt;a href='https://bmcinfectdis.biomedcentral.com/articles/10.1186/s12879-015-1083-9'&gt;Ladbury et al. 2015&lt;/a&gt;</t>
-  </si>
-  <si>
-    <t>&lt;a href='https://pubmed.ncbi.nlm.nih.gov/30228132/'&gt;Kravchenko et al. 2018&lt;/a&gt;</t>
-  </si>
-  <si>
     <t>&lt;a href='https://journals.plos.org/plosone/article?id=10.1371/journal.pone.0200813'&gt;Kalkowska et al. 2018&lt;/a&gt;</t>
   </si>
   <si>
-    <t>&lt;a href='https://pubmed.ncbi.nlm.nih.gov/26709884/'&gt;Hunter et al. 2016&lt;/a&gt;</t>
-  </si>
-  <si>
     <t>&lt;a href='https://pubmed.ncbi.nlm.nih.gov/32168021/'&gt;Fisher et al. 2020&lt;/a&gt;</t>
   </si>
   <si>
@@ -171,9 +171,6 @@
     <t>USA</t>
   </si>
   <si>
-    <t>UK</t>
-  </si>
-  <si>
     <t>France</t>
   </si>
   <si>
@@ -288,29 +285,29 @@
     <t>Loftus et al. 2020</t>
   </si>
   <si>
-    <t>Ladbury et al. 2015</t>
-  </si>
-  <si>
-    <t>Kravchenko et al. 2018</t>
-  </si>
-  <si>
     <t>Kalkowska et al. 2018</t>
   </si>
   <si>
-    <t>Hunter et al. 2016</t>
-  </si>
-  <si>
     <t>Fisher et al. 2020</t>
   </si>
   <si>
     <t>Douillard et al. 2018</t>
+  </si>
+  <si>
+    <t>32511496</t>
+  </si>
+  <si>
+    <t>Son et al. 2021</t>
+  </si>
+  <si>
+    <t>&lt;a href='https://www.sciencedirect.com/science/article/pii/S0048969721044806/'&gt;Son et al. 2021&lt;/a&gt;</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -336,6 +333,14 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="4">
@@ -367,11 +372,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -384,8 +390,13 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="2" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
+    <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1" xr:uid="{7B603030-C1D6-43EA-814E-53F41E0AF2D8}"/>
   </cellStyles>
@@ -679,20 +690,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G36"/>
+  <dimension ref="A1:M34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F33" sqref="F33"/>
+      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A34" sqref="A34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="93.26953125" customWidth="1"/>
-    <col min="4" max="5" width="8.7265625" style="2"/>
+    <col min="4" max="4" width="8.7265625" style="2"/>
+    <col min="5" max="5" width="9" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>14</v>
       </c>
@@ -706,16 +718,16 @@
         <v>17</v>
       </c>
       <c r="E1" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="F1" t="s">
+        <v>35</v>
+      </c>
+      <c r="G1" t="s">
         <v>46</v>
       </c>
-      <c r="F1" t="s">
-        <v>38</v>
-      </c>
-      <c r="G1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -732,15 +744,19 @@
         <v>16</v>
       </c>
       <c r="F2" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G2" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.35">
+        <v>47</v>
+      </c>
+      <c r="I2">
+        <f>16+18</f>
+        <v>34</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A3" s="5" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="B3" s="5">
         <v>2004</v>
@@ -751,15 +767,15 @@
         <v>10</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.35">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A4" s="5" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="B4" s="5">
         <v>1995</v>
@@ -770,13 +786,13 @@
         <v>8</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -793,13 +809,13 @@
         <v>6</v>
       </c>
       <c r="F5" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G5" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>3</v>
       </c>
@@ -816,13 +832,13 @@
         <v>12</v>
       </c>
       <c r="F6" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G6" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>4</v>
       </c>
@@ -839,13 +855,13 @@
         <v>14</v>
       </c>
       <c r="F7" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G7" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>5</v>
       </c>
@@ -862,13 +878,13 @@
         <v>4</v>
       </c>
       <c r="F8" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G8" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>6</v>
       </c>
@@ -885,13 +901,13 @@
         <v>2</v>
       </c>
       <c r="F9" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G9" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>13</v>
       </c>
@@ -908,13 +924,13 @@
         <v>9</v>
       </c>
       <c r="F10" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="G10" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>7</v>
       </c>
@@ -931,13 +947,13 @@
         <v>11</v>
       </c>
       <c r="F11" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="G11" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>8</v>
       </c>
@@ -954,13 +970,13 @@
         <v>15</v>
       </c>
       <c r="F12" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="G12" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>9</v>
       </c>
@@ -977,13 +993,13 @@
         <v>13</v>
       </c>
       <c r="F13" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="G13" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>10</v>
       </c>
@@ -1000,13 +1016,13 @@
         <v>7</v>
       </c>
       <c r="F14" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="G14" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>11</v>
       </c>
@@ -1023,13 +1039,13 @@
         <v>1</v>
       </c>
       <c r="F15" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="G15" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>12</v>
       </c>
@@ -1046,13 +1062,13 @@
         <v>5</v>
       </c>
       <c r="F16" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="G16" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A17" s="3" t="s">
         <v>18</v>
       </c>
@@ -1062,17 +1078,17 @@
       <c r="D17" s="2">
         <v>2222</v>
       </c>
-      <c r="E17" s="2">
+      <c r="E17" s="8">
         <v>32509660</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="G17" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A18" s="3" t="s">
         <v>19</v>
       </c>
@@ -1082,17 +1098,17 @@
       <c r="D18" s="2">
         <v>1111</v>
       </c>
-      <c r="E18" s="2">
+      <c r="E18" s="8">
         <v>32509722</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="G18" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A19" s="3" t="s">
         <v>20</v>
       </c>
@@ -1102,17 +1118,17 @@
       <c r="D19" s="2">
         <v>3333</v>
       </c>
-      <c r="E19" s="2">
+      <c r="E19" s="8">
         <v>32509566</v>
       </c>
       <c r="F19" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G19" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A20" s="3" t="s">
         <v>21</v>
       </c>
@@ -1122,17 +1138,17 @@
       <c r="D20" s="2">
         <v>4</v>
       </c>
-      <c r="E20" s="2">
+      <c r="E20" s="8">
         <v>32509553</v>
       </c>
       <c r="F20" s="4" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="G20" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A21" s="3" t="s">
         <v>22</v>
       </c>
@@ -1142,17 +1158,17 @@
       <c r="D21" s="2">
         <v>5</v>
       </c>
-      <c r="E21" s="2">
+      <c r="E21" s="8">
         <v>32509433</v>
       </c>
       <c r="F21" s="4" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G21" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A22" s="3" t="s">
         <v>23</v>
       </c>
@@ -1162,54 +1178,57 @@
       <c r="D22" s="2">
         <v>6</v>
       </c>
-      <c r="E22" s="2">
+      <c r="E22" s="8">
         <v>32509432</v>
       </c>
       <c r="F22" s="4" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G22" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A23" s="3" t="s">
         <v>24</v>
       </c>
       <c r="B23">
-        <v>2015</v>
+        <v>2018</v>
       </c>
       <c r="D23" s="2">
-        <v>7</v>
-      </c>
-      <c r="E23" s="2">
-        <v>32509394</v>
+        <v>99</v>
+      </c>
+      <c r="E23" s="8">
+        <v>32509363</v>
       </c>
       <c r="F23" s="4" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="G23" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A24" s="3" t="s">
         <v>25</v>
       </c>
       <c r="B24">
-        <v>2018</v>
+        <v>2020</v>
       </c>
       <c r="D24" s="2">
-        <v>8</v>
+        <v>11</v>
+      </c>
+      <c r="E24" s="8">
+        <v>32509257</v>
       </c>
       <c r="F24" s="4" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G24" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A25" s="3" t="s">
         <v>26</v>
       </c>
@@ -1217,153 +1236,160 @@
         <v>2018</v>
       </c>
       <c r="D25" s="2">
-        <v>99</v>
-      </c>
-      <c r="E25" s="2">
-        <v>32509363</v>
+        <v>12</v>
+      </c>
+      <c r="E25" s="8">
+        <v>32509233</v>
       </c>
       <c r="F25" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G25" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A26" s="3" t="s">
         <v>27</v>
       </c>
       <c r="B26">
-        <v>2016</v>
+        <v>2019</v>
       </c>
       <c r="D26" s="2">
-        <v>10</v>
+        <v>13</v>
+      </c>
+      <c r="E26" s="8">
+        <v>32508669</v>
       </c>
       <c r="F26" s="4" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="G26" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+        <v>62</v>
+      </c>
+      <c r="M26">
+        <f>15+6+11</f>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A27" s="3" t="s">
         <v>28</v>
       </c>
       <c r="B27">
-        <v>2020</v>
+        <v>2018</v>
       </c>
       <c r="D27" s="2">
-        <v>11</v>
-      </c>
-      <c r="E27" s="2">
-        <v>32509257</v>
+        <v>14</v>
+      </c>
+      <c r="E27" s="8">
+        <v>32508518</v>
       </c>
       <c r="F27" s="4" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G27" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A28" s="3" t="s">
         <v>29</v>
       </c>
       <c r="B28">
-        <v>2018</v>
+        <v>2015</v>
       </c>
       <c r="D28" s="2">
-        <v>12</v>
-      </c>
-      <c r="E28" s="2">
-        <v>32509233</v>
+        <v>15</v>
+      </c>
+      <c r="E28" s="8">
+        <v>32508377</v>
       </c>
       <c r="F28" s="4" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="G28" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A29" s="3" t="s">
         <v>30</v>
       </c>
       <c r="B29">
-        <v>2019</v>
+        <v>2014</v>
       </c>
       <c r="D29" s="2">
-        <v>13</v>
-      </c>
-      <c r="E29" s="2">
-        <v>32508669</v>
+        <v>16</v>
+      </c>
+      <c r="E29" s="8">
+        <v>32508130</v>
       </c>
       <c r="F29" s="4" t="s">
         <v>40</v>
       </c>
       <c r="G29" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A30" s="3" t="s">
         <v>31</v>
       </c>
       <c r="B30">
-        <v>2018</v>
+        <v>2016</v>
       </c>
       <c r="D30" s="2">
-        <v>14</v>
-      </c>
-      <c r="E30" s="2">
-        <v>32508518</v>
+        <v>17</v>
+      </c>
+      <c r="E30" s="8">
+        <v>32507932</v>
       </c>
       <c r="F30" s="4" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="G30" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A31" s="3" t="s">
         <v>32</v>
       </c>
       <c r="B31">
-        <v>2015</v>
+        <v>2017</v>
       </c>
       <c r="D31" s="2">
-        <v>15</v>
-      </c>
-      <c r="E31" s="2">
-        <v>32508377</v>
+        <v>18</v>
+      </c>
+      <c r="E31" s="8">
+        <v>32507767</v>
       </c>
       <c r="F31" s="4" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="G31" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A32" s="3" t="s">
         <v>33</v>
       </c>
       <c r="B32">
-        <v>2014</v>
+        <v>2019</v>
       </c>
       <c r="D32" s="2">
-        <v>16</v>
-      </c>
-      <c r="E32" s="2">
-        <v>32508130</v>
+        <v>19</v>
+      </c>
+      <c r="E32" s="8">
+        <v>32507707</v>
       </c>
       <c r="F32" s="4" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="G32" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="33" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
@@ -1371,85 +1397,44 @@
         <v>34</v>
       </c>
       <c r="B33">
-        <v>2016</v>
+        <v>2014</v>
       </c>
       <c r="D33" s="2">
-        <v>17</v>
-      </c>
-      <c r="E33" s="2">
-        <v>32507932</v>
+        <v>20</v>
+      </c>
+      <c r="E33" s="8">
+        <v>32507530</v>
       </c>
       <c r="F33" s="4" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G33" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="34" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A34" s="3" t="s">
-        <v>35</v>
+      <c r="A34" s="9" t="s">
+        <v>81</v>
       </c>
       <c r="B34">
-        <v>2017</v>
-      </c>
-      <c r="D34" s="2">
-        <v>18</v>
-      </c>
-      <c r="E34" s="2">
-        <v>32507767</v>
+        <v>2021</v>
+      </c>
+      <c r="E34" t="s">
+        <v>79</v>
       </c>
       <c r="F34" s="4" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G34" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A35" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="B35">
-        <v>2019</v>
-      </c>
-      <c r="D35" s="2">
-        <v>19</v>
-      </c>
-      <c r="E35" s="2">
-        <v>32507707</v>
-      </c>
-      <c r="F35" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="G35" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A36" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="B36">
-        <v>2014</v>
-      </c>
-      <c r="D36" s="2">
-        <v>20</v>
-      </c>
-      <c r="E36" s="2">
-        <v>32507530</v>
-      </c>
-      <c r="F36" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="G36" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:F36" xr:uid="{2B0286BE-7DB6-4D39-BE15-88F859A37941}"/>
+  <hyperlinks>
+    <hyperlink ref="A34" r:id="rId1" display="https://www.sciencedirect.com/science/article/pii/S0048969721044806" xr:uid="{A377CF90-C645-424B-BF7F-06599F7C46E9}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
 </worksheet>
 </file>
--- a/datasets/testtimeline.xlsx
+++ b/datasets/testtimeline.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fonsec16\OneDrive - Michigan State University\Documents\CAFO-July-2021\Update-Website-July-2021\datasets\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://michiganstate-my.sharepoint.com/personal/fonsec16_msu_edu/Documents/Documents/CAFO-July-2021/Update-Website-July-2021/datasets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D35E2715-E4BD-40DD-B927-B548B1EDF618}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="10" documentId="13_ncr:1_{D35E2715-E4BD-40DD-B927-B548B1EDF618}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DA0CE4E9-98C2-4D54-854B-DD4B583A49CF}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -55,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="84">
   <si>
     <t>year</t>
   </si>
@@ -301,6 +301,12 @@
   </si>
   <si>
     <t>&lt;a href='https://www.sciencedirect.com/science/article/pii/S0048969721044806/'&gt;Son et al. 2021&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href='https://pubmed.ncbi.nlm.nih.gov/35189407/'&gt;Simones et al. 2022&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>Simoes et al. 2022</t>
   </si>
 </sst>
 </file>
@@ -377,7 +383,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -394,6 +400,7 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="2" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="2" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
@@ -690,11 +697,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M34"/>
+  <dimension ref="A1:M35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A34" sqref="A34"/>
+      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G36" sqref="G36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1429,12 +1436,30 @@
         <v>80</v>
       </c>
     </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A35" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="B35">
+        <v>2022</v>
+      </c>
+      <c r="E35" s="2">
+        <v>32512033</v>
+      </c>
+      <c r="F35" t="s">
+        <v>36</v>
+      </c>
+      <c r="G35" t="s">
+        <v>83</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A34" r:id="rId1" display="https://www.sciencedirect.com/science/article/pii/S0048969721044806" xr:uid="{A377CF90-C645-424B-BF7F-06599F7C46E9}"/>
+    <hyperlink ref="A35" r:id="rId2" display="https://pubmed.ncbi.nlm.nih.gov/35189407/" xr:uid="{8EB6D20C-3ACD-4EE3-A60D-67383D778647}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId2"/>
-  <legacyDrawing r:id="rId3"/>
+  <pageSetup orientation="portrait" r:id="rId3"/>
+  <legacyDrawing r:id="rId4"/>
 </worksheet>
 </file>